--- a/DataDrivenFramework/src/test/resources/excel/testdata.xlsx
+++ b/DataDrivenFramework/src/test/resources/excel/testdata.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kfamily\eclipse-workspace\DataDrivenFramework\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC715653-1820-4782-A6C1-E236C8C8274B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253D31FE-83C6-4EAB-A920-9C7961262CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10400" xr2:uid="{771FCEF8-04DD-4E5F-AAD2-5EDA838A42D1}"/>
+    <workbookView xWindow="130" yWindow="2040" windowWidth="18270" windowHeight="5850" xr2:uid="{771FCEF8-04DD-4E5F-AAD2-5EDA838A42D1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="AddCustomerTest" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -22,6 +22,32 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>postcode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test </t>
+  </si>
+  <si>
+    <t>123pwd</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>Customer added successfully</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -371,14 +397,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3E4D78-F9E9-45A5-A9D4-CB2B85FDE62F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>